--- a/venv/Lesson_python/hello.xlsx
+++ b/venv/Lesson_python/hello.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="6975" windowWidth="22335" xWindow="240" yWindow="540"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="python" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,44 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t>aslin</t>
-  </si>
-  <si>
-    <t>eleven</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>two-two</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -79,7 +54,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -374,38 +349,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
 </worksheet>
 </file>